--- a/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/erp.directory.xlsx
+++ b/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/erp.directory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/web-app/vertx-zero/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C660DD-33AA-5044-864C-22533B9B03D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313F6357-845C-C643-81E2-93C05606E425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="61900" yWindow="1580" windowWidth="38400" windowHeight="16940" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="-75540" yWindow="-14600" windowWidth="38400" windowHeight="16940" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-CDATA" sheetId="7" r:id="rId1"/>
@@ -142,10 +142,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>io.vertx.tp.optic.feature.DepartmentArbor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>treeComponent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -156,23 +152,26 @@
   <si>
     <t>JSON:cab/directory/department.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>io.horizon.spi.feature.DepartmentArbor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -180,14 +179,14 @@
     <font>
       <sz val="16"/>
       <color rgb="FF0070C0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -195,7 +194,7 @@
     <font>
       <sz val="16"/>
       <color rgb="FF0070C0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -203,7 +202,7 @@
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -211,7 +210,7 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -696,10 +695,10 @@
   <dimension ref="A2:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54.1640625" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="8" bestFit="1" customWidth="1"/>
@@ -714,7 +713,7 @@
     <col min="11" max="11" width="50.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -733,7 +732,7 @@
       <c r="J2" s="19"/>
       <c r="K2" s="19"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -768,7 +767,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -797,13 +796,13 @@
         <v>20</v>
       </c>
       <c r="J4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>33</v>
-      </c>
     </row>
-    <row r="5" spans="1:11" ht="66">
+    <row r="5" spans="1:11" ht="66" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>24</v>
       </c>
@@ -830,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -853,7 +852,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
@@ -882,7 +881,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>2</v>
       </c>
@@ -917,7 +916,7 @@
     <mergeCell ref="C2:K2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F1 F10:F1048576 F3:F8">
+  <conditionalFormatting sqref="F1 F3:F8 F10:F1048576">
     <cfRule type="cellIs" dxfId="1" priority="147" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
